--- a/EC/Train Runs and Enforcements 2016-06-23.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wabtec\Documents\GitHub\eaglep3-reporting\EC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Documents\GitHub\eaglep3-reporting\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,6 @@
     <definedName name="Denver_Train_Runs_04122016" localSheetId="0">'Train Runs'!$A$12:$J$146</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1973,7 +1972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2195,29 +2194,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_XINGS" xfId="1"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2579,7 +2562,7 @@
   <dimension ref="A1:CM196"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2939,6 +2922,10 @@
       <c r="N11" s="81"/>
       <c r="O11" s="81"/>
       <c r="P11" s="81"/>
+      <c r="S11" s="91">
+        <f>AVERAGE(S13:S99999)</f>
+        <v>0.96276595744680848</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="10" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
@@ -15445,7 +15432,7 @@
         <v>23.2974</v>
       </c>
       <c r="AA141" s="48">
-        <f t="shared" ref="AA141:AA172" si="56">ABS(Z141-Y141)</f>
+        <f t="shared" ref="AA141:AA154" si="56">ABS(Z141-Y141)</f>
         <v>23.250699999999998</v>
       </c>
       <c r="AB141" s="49" t="e">
@@ -16971,27 +16958,27 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="W11:W12 W177:X1048576 W13:X154">
-    <cfRule type="cellIs" dxfId="10" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="69" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X177:X1048576 X13:X154">
-    <cfRule type="cellIs" dxfId="9" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="52" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X177:X1048576 X12:X154">
-    <cfRule type="cellIs" dxfId="8" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141:M143 A13:S13 S13:S29 A144:M152 A14:M140 N14:S152 A153:S154">
-    <cfRule type="expression" dxfId="7" priority="45">
+    <cfRule type="expression" dxfId="5" priority="45">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S154">
-    <cfRule type="expression" dxfId="6" priority="44">
+    <cfRule type="expression" dxfId="4" priority="44">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20595,17 +20582,17 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="P6 M6:N6 M7:M1048576">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N73">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
